--- a/usage/cat.xlsx
+++ b/usage/cat.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>study</t>
   </si>
@@ -22,7 +22,7 @@
     <t>management</t>
   </si>
   <si>
-    <t>bio</t>
+    <t>bio.sio</t>
   </si>
   <si>
     <t>math</t>
@@ -65,66 +65,6 @@
   </si>
   <si>
     <t>software</t>
-  </si>
-  <si>
-    <t>bandana</t>
-  </si>
-  <si>
-    <t>roshan</t>
-  </si>
-  <si>
-    <t>sanjay</t>
-  </si>
-  <si>
-    <t>rukesh</t>
-  </si>
-  <si>
-    <t>Aungush</t>
-  </si>
-  <si>
-    <t>nikesh</t>
-  </si>
-  <si>
-    <t>seena</t>
-  </si>
-  <si>
-    <t>santosh</t>
-  </si>
-  <si>
-    <t>pratik</t>
-  </si>
-  <si>
-    <t>jeena</t>
-  </si>
-  <si>
-    <t>rajani</t>
-  </si>
-  <si>
-    <t>haris</t>
-  </si>
-  <si>
-    <t>shreetika</t>
-  </si>
-  <si>
-    <t>prijal</t>
-  </si>
-  <si>
-    <t>samina</t>
-  </si>
-  <si>
-    <t>anish</t>
-  </si>
-  <si>
-    <t>rasil</t>
-  </si>
-  <si>
-    <t>amit</t>
-  </si>
-  <si>
-    <t>anjeela</t>
-  </si>
-  <si>
-    <t>sushmin</t>
   </si>
 </sst>
 </file>
@@ -501,8 +441,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:J6"/>
+  <sheetFormatPr defaultRowHeight="50" outlineLevelRow="0" outlineLevelCol="8" x14ac:dyDescent="55" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -611,70 +551,6 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
